--- a/cldr/main/lang.xlsx
+++ b/cldr/main/lang.xlsx
@@ -3970,7 +3970,7 @@
     <t xml:space="preserve">албанский</t>
   </si>
   <si>
-    <t xml:space="preserve">албан</t>
+    <t xml:space="preserve">арнауҭ</t>
   </si>
   <si>
     <t xml:space="preserve">sq</t>
@@ -4102,23 +4102,7 @@
     <t xml:space="preserve">классический сирийский</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">аклассикатә </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">шьамтәыла</t>
-    </r>
+    <t xml:space="preserve">аклассикатә шьамтәыла</t>
   </si>
   <si>
     <t xml:space="preserve">syc</t>
@@ -4887,7 +4871,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4908,11 +4892,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4964,12 +4943,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4977,7 +4952,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4990,23 +4965,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -5017,11 +4975,11 @@
   </sheetPr>
   <dimension ref="A1:C542"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A530" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A537" activeCellId="0" sqref="A537"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A440" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B445" activeCellId="0" sqref="B445"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.66"/>
@@ -8409,7 +8367,7 @@
       <c r="A308" s="0" t="s">
         <v>905</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="1" t="s">
         <v>906</v>
       </c>
       <c r="C308" s="0" t="s">
@@ -8750,7 +8708,7 @@
       <c r="A339" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="1" t="s">
         <v>999</v>
       </c>
       <c r="C339" s="0" t="s">
@@ -8948,7 +8906,7 @@
       <c r="A357" s="0" t="s">
         <v>1052</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="1" t="s">
         <v>1053</v>
       </c>
       <c r="C357" s="0" t="s">
@@ -10466,10 +10424,10 @@
       <c r="A495" s="0" t="s">
         <v>1464</v>
       </c>
-      <c r="B495" s="3" t="s">
+      <c r="B495" s="2" t="s">
         <v>1465</v>
       </c>
-      <c r="C495" s="3" t="s">
+      <c r="C495" s="2" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -10532,7 +10490,7 @@
       <c r="A501" s="0" t="s">
         <v>1482</v>
       </c>
-      <c r="B501" s="3" t="s">
+      <c r="B501" s="2" t="s">
         <v>1483</v>
       </c>
       <c r="C501" s="0" t="s">
@@ -10895,7 +10853,7 @@
       <c r="A534" s="0" t="s">
         <v>1581</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="1" t="s">
         <v>1582</v>
       </c>
       <c r="C534" s="0" t="s">
@@ -10906,7 +10864,7 @@
       <c r="A535" s="0" t="s">
         <v>1584</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="1" t="s">
         <v>1585</v>
       </c>
       <c r="C535" s="0" t="s">
@@ -10917,7 +10875,7 @@
       <c r="A536" s="0" t="s">
         <v>1587</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="C536" s="0" t="s">
@@ -10928,7 +10886,7 @@
       <c r="A537" s="0" t="s">
         <v>1590</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="1" t="s">
         <v>1591</v>
       </c>
       <c r="C537" s="0" t="s">
@@ -10939,7 +10897,7 @@
       <c r="A538" s="0" t="s">
         <v>1593</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="1" t="s">
         <v>1594</v>
       </c>
       <c r="C538" s="0" t="s">
@@ -10972,7 +10930,7 @@
       <c r="A541" s="0" t="s">
         <v>1602</v>
       </c>
-      <c r="B541" s="3" t="s">
+      <c r="B541" s="2" t="s">
         <v>1603</v>
       </c>
       <c r="C541" s="0" t="s">

--- a/cldr/main/lang.xlsx
+++ b/cldr/main/lang.xlsx
@@ -3136,7 +3136,7 @@
     <t xml:space="preserve">норвежский</t>
   </si>
   <si>
-    <t xml:space="preserve">анорвеж</t>
+    <t xml:space="preserve">анорвег</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -4975,11 +4975,11 @@
   </sheetPr>
   <dimension ref="A1:C542"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A440" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B445" activeCellId="0" sqref="B445"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A345" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B352" activeCellId="0" sqref="B352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.66"/>

--- a/cldr/main/lang.xlsx
+++ b/cldr/main/lang.xlsx
@@ -1774,7 +1774,7 @@
     <t xml:space="preserve">армянский</t>
   </si>
   <si>
-    <t xml:space="preserve">аерман/ашәамахь</t>
+    <t xml:space="preserve">аерман</t>
   </si>
   <si>
     <t xml:space="preserve">hy</t>
@@ -3133,7 +3133,7 @@
     <t xml:space="preserve">норвежский</t>
   </si>
   <si>
-    <t xml:space="preserve">анорвеж</t>
+    <t xml:space="preserve">анорвег</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
@@ -4964,11 +4964,11 @@
   </sheetPr>
   <dimension ref="A1:C542"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A150" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B158" activeCellId="0" sqref="B158"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A344" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B352" activeCellId="0" sqref="B352"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.71"/>
